--- a/TGSProject/Assets/Resources/MessageData/Excels/Scenario/Prologue.xlsx
+++ b/TGSProject/Assets/Resources/MessageData/Excels/Scenario/Prologue.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\圖片\PAINT\盲目少女\シナリオ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TGSProject\TGSProject\Assets\Resources\MessageData\Excels\Scenario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45F10DE7-A6E2-4C3F-930F-7D5D03E24A89}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB9E7FF4-F0F9-411E-B4A7-C1E860AB6F68}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1896" yWindow="144" windowWidth="21144" windowHeight="12216" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Message" sheetId="1" r:id="rId1"/>
@@ -181,11 +181,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>蜘蛛だ。
-蜘蛛の野郎どもが急に襲い掛かってきてのぅ。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>そんな……
 じゃあ、もう宮殿には入れないのですか…！</t>
     <phoneticPr fontId="1"/>
@@ -252,6 +247,11 @@
   <si>
     <t>微力ながら、そなたらの助けとなろう。
 必要な時は口笛を吹くが良い。我が同胞が必ず駆け付けよう。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>蜘蛛だ。
+蜘蛛どもが急に襲い掛かってきてのぅ。</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -263,13 +263,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Yu Gothic"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="新細明體"/>
+      <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -416,7 +416,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="9">
     <dxf>
@@ -533,23 +533,23 @@
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
+      <border>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
-      <border>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -587,14 +587,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E412B7B4-3AD9-440F-9360-AEBFACBD8F74}" name="テーブル2" displayName="テーブル2" ref="A1:E27" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="7" tableBorderDxfId="6" totalsRowBorderDxfId="5">
-  <autoFilter ref="A1:E27" xr:uid="{D03ADF74-DA20-4EAC-975E-A10017DD0E21}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{46FC1C5F-0D63-4E61-96E7-0C53DDE09538}" name="テーブル22" displayName="テーブル22" ref="A1:E27" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="6" tableBorderDxfId="7" totalsRowBorderDxfId="5">
+  <autoFilter ref="A1:E27" xr:uid="{B5E2EBFC-A152-4FEB-8D0F-181A290C6F2E}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{9B5906D2-344D-438A-860F-CDE07D64E213}" name="id" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{D280F915-4490-4571-9F1B-6A69D8EBC494}" name="name" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{FAADE992-BF42-401F-86C6-E6A4FEE3DE45}" name="dispPos" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{1FC883F6-A1CD-47DB-A10E-4010C13FFE15}" name="faceType" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{3927D6AB-3527-43EF-91CB-8090EBD4346A}" name="message" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{A92F91C8-BC15-4CCF-9F89-86FAEB061BE5}" name="id" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{CCC967D0-21BF-4D5F-A257-6F9AAAF0A8A6}" name="name" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{C1547751-11E5-42DA-BEC3-F72939985B2F}" name="dispPos" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{DDC4C1F1-8A6A-4982-818C-A3A16D2DD330}" name="faceType" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{592C5DC3-87B8-4F7E-8254-232426EEA7D0}" name="message" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -865,18 +865,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection sqref="A1:E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
     <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="19.25" customWidth="1"/>
-    <col min="4" max="4" width="17.75" customWidth="1"/>
+    <col min="3" max="3" width="19.19921875" customWidth="1"/>
+    <col min="4" max="4" width="17.69921875" customWidth="1"/>
     <col min="5" max="5" width="80.5" customWidth="1"/>
-    <col min="6" max="6" width="15.75" customWidth="1"/>
-    <col min="7" max="7" width="14.75" customWidth="1"/>
+    <col min="6" max="6" width="15.69921875" customWidth="1"/>
+    <col min="7" max="7" width="14.69921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -896,7 +896,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="30">
+    <row r="2" spans="1:5" ht="36">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -904,7 +904,7 @@
         <v>11</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D2" s="2">
         <v>1</v>
@@ -913,7 +913,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="30">
+    <row r="3" spans="1:5" ht="36">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -921,13 +921,13 @@
         <v>13</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D3" s="7">
         <v>2</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -938,7 +938,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D4" s="7">
         <v>1</v>
@@ -947,7 +947,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="30">
+    <row r="5" spans="1:5" ht="36">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -955,16 +955,16 @@
         <v>13</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D5" s="7">
         <v>1</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="30">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="36">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -972,16 +972,16 @@
         <v>13</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D6" s="7">
         <v>3</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="30">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="36">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -989,7 +989,7 @@
         <v>15</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D7" s="7">
         <v>5</v>
@@ -998,7 +998,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="30">
+    <row r="8" spans="1:5" ht="36">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1006,7 +1006,7 @@
         <v>15</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D8" s="7">
         <v>4</v>
@@ -1023,7 +1023,7 @@
         <v>11</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D9" s="7">
         <v>1</v>
@@ -1040,7 +1040,7 @@
         <v>11</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D10" s="7">
         <v>1</v>
@@ -1049,7 +1049,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="30">
+    <row r="11" spans="1:5" ht="36">
       <c r="A11" s="6">
         <v>10</v>
       </c>
@@ -1057,13 +1057,13 @@
         <v>13</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D11" s="7">
         <v>6</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1074,7 +1074,7 @@
         <v>13</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D12" s="7">
         <v>3</v>
@@ -1083,7 +1083,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="30">
+    <row r="13" spans="1:5" ht="36">
       <c r="A13" s="6">
         <v>12</v>
       </c>
@@ -1091,7 +1091,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D13" s="7">
         <v>1</v>
@@ -1100,7 +1100,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="30">
+    <row r="14" spans="1:5" ht="36">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1108,7 +1108,7 @@
         <v>13</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D14" s="7">
         <v>2</v>
@@ -1125,7 +1125,7 @@
         <v>11</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D15" s="7">
         <v>1</v>
@@ -1134,7 +1134,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="30">
+    <row r="16" spans="1:5" ht="36">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1142,7 +1142,7 @@
         <v>11</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D16" s="7">
         <v>1</v>
@@ -1151,7 +1151,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="30">
+    <row r="17" spans="1:5" ht="36">
       <c r="A17" s="6">
         <v>16</v>
       </c>
@@ -1159,7 +1159,7 @@
         <v>13</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D17" s="4">
         <v>6</v>
@@ -1168,7 +1168,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="30">
+    <row r="18" spans="1:5" ht="36">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1176,16 +1176,16 @@
         <v>11</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D18" s="7">
         <v>1</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="30">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="36">
       <c r="A19" s="6">
         <v>18</v>
       </c>
@@ -1193,16 +1193,16 @@
         <v>11</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D19" s="4">
         <v>1</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="30">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="36">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1210,16 +1210,16 @@
         <v>15</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D20" s="7">
         <v>5</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="30">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="36">
       <c r="A21" s="6">
         <v>20</v>
       </c>
@@ -1227,13 +1227,13 @@
         <v>13</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D21" s="4">
         <v>1</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1244,16 +1244,16 @@
         <v>13</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D22" s="7">
         <v>6</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="30">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="36">
       <c r="A23" s="6">
         <v>22</v>
       </c>
@@ -1261,16 +1261,16 @@
         <v>11</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D23" s="4">
         <v>1</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="30">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="36">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1278,13 +1278,13 @@
         <v>11</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D24" s="7">
         <v>1</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1295,16 +1295,16 @@
         <v>13</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D25" s="4">
         <v>4</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="30">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="36">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -1312,16 +1312,16 @@
         <v>11</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D26" s="7">
         <v>1</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="30">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="36">
       <c r="A27" s="6">
         <v>26</v>
       </c>
@@ -1329,19 +1329,19 @@
         <v>11</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D27" s="4">
         <v>1</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C27" xr:uid="{8FDBC182-949B-4BCE-AF08-32C16AA220CF}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C27" xr:uid="{AEBD5C52-FCEF-4ABF-AF56-2D04368CB07B}">
       <formula1>"Left,Right"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F13" xr:uid="{A26CC118-CF99-454A-9DC9-CE5C05F09D3D}">
@@ -1364,7 +1364,7 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
@@ -1403,15 +1403,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100BAE7EB4212F5614DAFCEB6FEF87A9307" ma:contentTypeVersion="7" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="12250d17ef9aef68ca08ed35e135200f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="06e34fca-c037-4f19-8349-14b84dea7b7d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ba4eafe8c0cf322686b87aede248738b" ns2:_="">
     <xsd:import namespace="06e34fca-c037-4f19-8349-14b84dea7b7d"/>
@@ -1575,6 +1566,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -1582,14 +1582,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{92F4045C-1F40-4742-B56D-B56D7D02B291}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{671DC79E-4BF9-434E-A7D4-FAA19751AE50}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1607,6 +1599,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{92F4045C-1F40-4742-B56D-B56D7D02B291}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0DDF3B9B-96E7-45C0-A54D-CB76AD420E8C}">
   <ds:schemaRefs>
